--- a/00_management/反復計画書レビュー議事録.xlsx
+++ b/00_management/反復計画書レビュー議事録.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3827C292-9AAF-4099-BA17-45BAA3B4E074}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC0DE1-A9F5-450F-B8C7-B567F9CDB2C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -284,28 +284,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>横井,栢沼,鈴木(亘),浜崎,今竹</t>
-    <rPh sb="0" eb="2">
-      <t>ヨコイ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>カヤヌマ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>スズキ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ワタル</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ハマサキ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>イマタケ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今竹</t>
     <rPh sb="0" eb="2">
       <t>イマタケ</t>
@@ -431,10 +409,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新システムの検討は最初に決めておくべきか今後の反復の中で考えてよいか</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>今後の反復の中で反復計画書を更新すれば良い。</t>
     <rPh sb="0" eb="2">
       <t>コンゴ</t>
@@ -600,6 +574,72 @@
   <si>
     <t>2020/6/2
 11:30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上様,横井,栢沼,鈴木(亘),浜崎,今竹</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヨコイ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カヤヌマ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>スズキ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ワタル</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ハマサキ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イマタケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>畔上様</t>
+    <rPh sb="0" eb="2">
+      <t>アゼガミ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>サマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>発言者（敬称略）</t>
+    <rPh sb="0" eb="3">
+      <t>ハツゲンシャ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>ケイショウリャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>了承した。</t>
+    <rPh sb="0" eb="2">
+      <t>リョウショウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>参考にする。</t>
+    <rPh sb="0" eb="2">
+      <t>サンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新システムの検討は最初に決めておくべきか今後の反復の中で考えてよいか。</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -997,6 +1037,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1041,9 +1084,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1494,8 +1534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A7" zoomScale="160" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="160" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1507,10 +1547,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -1519,78 +1559,78 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
-        <v>44</v>
-      </c>
-      <c r="B2" s="31"/>
+      <c r="A2" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D2" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D2" s="13" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A5" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="34"/>
+    </row>
+    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B6" s="32"/>
+      <c r="C6" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="D5" s="33"/>
-    </row>
-    <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+        <v>37</v>
+      </c>
+      <c r="B8" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -1599,68 +1639,68 @@
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="23"/>
+      <c r="C10" s="15" t="s">
         <v>39</v>
-      </c>
-      <c r="B10" s="22"/>
-      <c r="C10" s="15" t="s">
-        <v>40</v>
       </c>
       <c r="D10" s="16">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21"/>
-      <c r="B11" s="22"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
     </row>
     <row r="12" spans="1:4" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21"/>
-      <c r="B12" s="22"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>
@@ -1715,8 +1755,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1724,9 +1764,10 @@
     <col min="1" max="1" width="4.5" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="37.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="76.25" customWidth="1"/>
+    <col min="5" max="5" width="15.25" customWidth="1"/>
     <col min="6" max="6" width="53.375" customWidth="1"/>
+    <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -1743,7 +1784,7 @@
         <v>31</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>2</v>
+        <v>62</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
@@ -1755,38 +1796,38 @@
     <row r="2" spans="1:7" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="G3" s="3"/>
     </row>
@@ -1794,16 +1835,16 @@
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>54</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="G4" s="10"/>
     </row>
@@ -1811,30 +1852,34 @@
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D5" s="3" t="s">
-        <v>57</v>
-      </c>
       <c r="E5" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>63</v>
+      </c>
       <c r="G5" s="3"/>
     </row>
     <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="F6" s="3"/>
+        <v>49</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>64</v>
+      </c>
       <c r="G6" s="3"/>
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
@@ -1843,30 +1888,33 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>60</v>
+      <c r="D7" s="19" t="s">
+        <v>58</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>63</v>
       </c>
       <c r="G8" s="3"/>
     </row>
@@ -2037,10 +2085,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="30"/>
       <c r="C1" s="7" t="s">
         <v>8</v>
       </c>
@@ -2049,10 +2097,10 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="34.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="30" t="s">
+      <c r="A2" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B2" s="31"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>35</v>
       </c>
@@ -2062,66 +2110,66 @@
       <c r="G2" s="14"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="33"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="34"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="26" t="s">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="D5" s="33"/>
+      <c r="D5" s="34"/>
     </row>
     <row r="6" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="30" t="s">
+      <c r="B6" s="32"/>
+      <c r="C6" s="31" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="31"/>
+      <c r="D6" s="32"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
     </row>
     <row r="8" spans="1:7" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="24"/>
-      <c r="D8" s="25"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="26"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A9" s="26" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
       <c r="C9" s="4" t="s">
         <v>22</v>
       </c>
@@ -2130,10 +2178,10 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="15" t="s">
         <v>27</v>
       </c>
@@ -2142,10 +2190,10 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="22"/>
+      <c r="B11" s="23"/>
       <c r="C11" s="15" t="s">
         <v>17</v>
       </c>
@@ -2154,10 +2202,10 @@
       </c>
     </row>
     <row r="12" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="21" t="s">
+      <c r="A12" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="22"/>
+      <c r="B12" s="23"/>
       <c r="C12" s="15" t="s">
         <v>27</v>
       </c>
@@ -2166,44 +2214,44 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A13" s="21"/>
-      <c r="B13" s="22"/>
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="15"/>
       <c r="D14" s="16"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="21"/>
-      <c r="B15" s="22"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
       <c r="C15" s="15"/>
       <c r="D15" s="16"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="21"/>
-      <c r="B16" s="22"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
       <c r="C16" s="15"/>
       <c r="D16" s="16"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A17" s="21"/>
-      <c r="B17" s="22"/>
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
       <c r="C17" s="15"/>
       <c r="D17" s="16"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
       <c r="C18" s="15"/>
       <c r="D18" s="16"/>
     </row>
     <row r="19" spans="1:4" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
       <c r="C19" s="11"/>
       <c r="D19" s="12"/>
     </row>

--- a/00_management/反復計画書レビュー議事録.xlsx
+++ b/00_management/反復計画書レビュー議事録.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83DC0DE1-A9F5-450F-B8C7-B567F9CDB2C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC53A49B-4CE1-49E0-8B4D-1DC9AAF0F612}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="66">
   <si>
     <t>No</t>
     <phoneticPr fontId="1"/>
@@ -1534,8 +1534,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A10" zoomScale="160" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScale="160" zoomScaleNormal="85" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1755,8 +1755,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:G23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1766,7 +1766,7 @@
     <col min="3" max="3" width="10.625" customWidth="1"/>
     <col min="4" max="4" width="76.25" customWidth="1"/>
     <col min="5" max="5" width="15.25" customWidth="1"/>
-    <col min="6" max="6" width="53.375" customWidth="1"/>
+    <col min="6" max="6" width="58.25" customWidth="1"/>
     <col min="7" max="7" width="14.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1816,7 +1816,9 @@
     </row>
     <row r="3" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="3"/>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>52</v>
       </c>
@@ -1833,7 +1835,9 @@
     </row>
     <row r="4" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>52</v>
       </c>
@@ -1848,9 +1852,11 @@
       </c>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>53</v>
       </c>
@@ -1865,9 +1871,11 @@
       </c>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="27" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>53</v>
       </c>
@@ -1884,7 +1892,9 @@
     </row>
     <row r="7" spans="1:7" ht="27" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1903,7 +1913,9 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>44</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
